--- a/HubTalentos-Avaliacao-Appium_TDD/AdvantageOnline_Data.xlsx
+++ b/HubTalentos-Avaliacao-Appium_TDD/AdvantageOnline_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex.junior\Documents\projeto_bdd\HubTalentosAvaliacao_BDD\HubTalentos-Avaliacao_BDD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex.junior\Git\HubTalentosAvaliacaoAppium_TDD\HubTalentos-Avaliacao-Appium_TDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100E3C13-CA72-4E7B-9240-837B60B02041}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D10F5E-B14A-462A-9F94-6120D91725C7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8D0779E8-EFC8-4813-BF37-B00537C68B16}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{8D0779E8-EFC8-4813-BF37-B00537C68B16}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -251,7 +251,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
   <si>
     <t>NUMBER TEST</t>
   </si>
@@ -460,26 +460,29 @@
     <t>HP H5H59HX</t>
   </si>
   <si>
-    <t>Machado32</t>
-  </si>
-  <si>
-    <t>Marcela121</t>
-  </si>
-  <si>
-    <t>BrUn98</t>
-  </si>
-  <si>
-    <t>Maria17</t>
-  </si>
-  <si>
-    <t>Max_Steel261</t>
+    <t>Marcela110</t>
+  </si>
+  <si>
+    <t>BrUn97</t>
+  </si>
+  <si>
+    <t>Maria26</t>
+  </si>
+  <si>
+    <t>BRUNO138</t>
+  </si>
+  <si>
+    <t>machado32</t>
+  </si>
+  <si>
+    <t>Logitech A700B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -538,13 +541,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -641,7 +637,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -676,10 +672,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -997,10 +989,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA74D7E8-6402-4590-A29D-1B9CE9F8EE2E}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1061,8 +1053,8 @@
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>73</v>
+      <c r="B2" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>13</v>
@@ -1100,7 +1092,7 @@
         <v>23</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>27</v>
@@ -1138,7 +1130,7 @@
         <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>28</v>
@@ -1173,13 +1165,13 @@
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>60</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>61</v>
@@ -1206,15 +1198,13 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G8" s="14"/>
-    </row>
   </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{E6835DCD-797E-423A-91F9-44A94D89F401}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{2D786DDF-5728-4B60-AD28-AF599AF8C51C}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{F17133B7-2C6B-415C-9D6B-D05BC20E0D31}"/>
-    <hyperlink ref="C2" r:id="rId4" xr:uid="{506B5F6E-04B9-42F4-B212-FF15B9BD919A}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{506B5F6E-04B9-42F4-B212-FF15B9BD919A}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{F17133B7-2C6B-415C-9D6B-D05BC20E0D31}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{2D786DDF-5728-4B60-AD28-AF599AF8C51C}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{E6835DCD-797E-423A-91F9-44A94D89F401}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
@@ -1224,10 +1214,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2589F06A-7E62-4BBF-BE1C-16B6DF5BF8F9}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1284,6 +1274,11 @@
     <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/HubTalentos-Avaliacao-Appium_TDD/AdvantageOnline_Data.xlsx
+++ b/HubTalentos-Avaliacao-Appium_TDD/AdvantageOnline_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex.junior\Git\HubTalentosAvaliacaoAppium_TDD\HubTalentos-Avaliacao-Appium_TDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D10F5E-B14A-462A-9F94-6120D91725C7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7F2728-CD34-4629-A9BD-A14D35C1719D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{8D0779E8-EFC8-4813-BF37-B00537C68B16}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{8D0779E8-EFC8-4813-BF37-B00537C68B16}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -1216,7 +1216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2589F06A-7E62-4BBF-BE1C-16B6DF5BF8F9}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -1291,8 +1291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DADD764A-3ADA-4DFD-BFD9-501D21F8734C}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
